--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H2">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I2">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J2">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N2">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O2">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P2">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q2">
-        <v>31.86649125408777</v>
+        <v>33.58223065539334</v>
       </c>
       <c r="R2">
-        <v>286.79842128679</v>
+        <v>302.2400758985401</v>
       </c>
       <c r="S2">
-        <v>0.06386745305286864</v>
+        <v>0.06899194064298392</v>
       </c>
       <c r="T2">
-        <v>0.06386745305286866</v>
+        <v>0.0689919406429839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H3">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I3">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J3">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q3">
-        <v>44.05834022805833</v>
+        <v>41.70226010210001</v>
       </c>
       <c r="R3">
-        <v>396.525062052525</v>
+        <v>375.3203409189001</v>
       </c>
       <c r="S3">
-        <v>0.08830259828941377</v>
+        <v>0.08567387566258322</v>
       </c>
       <c r="T3">
-        <v>0.08830259828941377</v>
+        <v>0.08567387566258321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H4">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I4">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J4">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N4">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O4">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P4">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q4">
-        <v>11.28340490054167</v>
+        <v>16.27126274938667</v>
       </c>
       <c r="R4">
-        <v>101.550644104875</v>
+        <v>146.44136474448</v>
       </c>
       <c r="S4">
-        <v>0.02261442362812411</v>
+        <v>0.03342797580397751</v>
       </c>
       <c r="T4">
-        <v>0.02261442362812411</v>
+        <v>0.0334279758039775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.9226816666666666</v>
+        <v>0.8733400000000001</v>
       </c>
       <c r="H5">
-        <v>2.768045</v>
+        <v>2.62002</v>
       </c>
       <c r="I5">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="J5">
-        <v>0.2278424551008264</v>
+        <v>0.2319025556440181</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N5">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q5">
-        <v>26.47313426427056</v>
+        <v>21.32417189647333</v>
       </c>
       <c r="R5">
-        <v>238.258208378435</v>
+        <v>191.91754706826</v>
       </c>
       <c r="S5">
-        <v>0.05305798013041989</v>
+        <v>0.0438087635344735</v>
       </c>
       <c r="T5">
-        <v>0.05305798013041989</v>
+        <v>0.0438087635344735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.803655</v>
       </c>
       <c r="I6">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J6">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N6">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O6">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P6">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q6">
-        <v>9.251896204289999</v>
+        <v>10.300886091465</v>
       </c>
       <c r="R6">
-        <v>83.26706583860999</v>
+        <v>92.707974823185</v>
       </c>
       <c r="S6">
-        <v>0.01854283365451181</v>
+        <v>0.02116232626370685</v>
       </c>
       <c r="T6">
-        <v>0.01854283365451182</v>
+        <v>0.02116232626370685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.803655</v>
       </c>
       <c r="I7">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J7">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q7">
         <v>12.791593133775</v>
@@ -883,10 +883,10 @@
         <v>115.124338203975</v>
       </c>
       <c r="S7">
-        <v>0.02563716436267431</v>
+        <v>0.02627927975573214</v>
       </c>
       <c r="T7">
-        <v>0.02563716436267432</v>
+        <v>0.02627927975573214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.803655</v>
       </c>
       <c r="I8">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J8">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N8">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O8">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P8">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q8">
-        <v>3.275945573625</v>
+        <v>4.99098543708</v>
       </c>
       <c r="R8">
-        <v>29.483510162625</v>
+        <v>44.91886893372001</v>
       </c>
       <c r="S8">
-        <v>0.006565715015781926</v>
+        <v>0.01025357054325751</v>
       </c>
       <c r="T8">
-        <v>0.006565715015781928</v>
+        <v>0.01025357054325751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.803655</v>
       </c>
       <c r="I9">
-        <v>0.06615019923955523</v>
+        <v>0.07113291057171066</v>
       </c>
       <c r="J9">
-        <v>0.06615019923955524</v>
+        <v>0.07113291057171067</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N9">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q9">
-        <v>7.686026317185</v>
+        <v>6.540895628834999</v>
       </c>
       <c r="R9">
-        <v>69.17423685466501</v>
+        <v>58.868060659515</v>
       </c>
       <c r="S9">
-        <v>0.01540448620658717</v>
+        <v>0.01343773400901417</v>
       </c>
       <c r="T9">
-        <v>0.01540448620658718</v>
+        <v>0.01343773400901417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H10">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I10">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J10">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N10">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O10">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P10">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q10">
-        <v>2.504725357482222</v>
+        <v>2.584722529909445</v>
       </c>
       <c r="R10">
-        <v>22.54252821734</v>
+        <v>23.262502769185</v>
       </c>
       <c r="S10">
-        <v>0.005020020180565211</v>
+        <v>0.005310100606239998</v>
       </c>
       <c r="T10">
-        <v>0.005020020180565212</v>
+        <v>0.005310100606239997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H11">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I11">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J11">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>143.250945</v>
       </c>
       <c r="O11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q11">
-        <v>3.463012011516666</v>
+        <v>3.209696590441667</v>
       </c>
       <c r="R11">
-        <v>31.16710810365</v>
+        <v>28.887269313975</v>
       </c>
       <c r="S11">
-        <v>0.006940637276427137</v>
+        <v>0.006594058593727612</v>
       </c>
       <c r="T11">
-        <v>0.006940637276427137</v>
+        <v>0.006594058593727611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H12">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I12">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J12">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N12">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O12">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P12">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q12">
-        <v>0.8868824040833332</v>
+        <v>1.252349787302222</v>
       </c>
       <c r="R12">
-        <v>7.981941636749998</v>
+        <v>11.27114808572</v>
       </c>
       <c r="S12">
-        <v>0.001777507283577746</v>
+        <v>0.002572850001431701</v>
       </c>
       <c r="T12">
-        <v>0.001777507283577746</v>
+        <v>0.0025728500014317</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07252333333333333</v>
+        <v>0.06721833333333334</v>
       </c>
       <c r="H13">
-        <v>0.21757</v>
+        <v>0.201655</v>
       </c>
       <c r="I13">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="J13">
-        <v>0.01790855385526131</v>
+        <v>0.01784883697773089</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N13">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q13">
-        <v>2.080804257834445</v>
+        <v>1.641256892612778</v>
       </c>
       <c r="R13">
-        <v>18.72723832051</v>
+        <v>14.771312033515</v>
       </c>
       <c r="S13">
-        <v>0.004170389114691218</v>
+        <v>0.003371827776331575</v>
       </c>
       <c r="T13">
-        <v>0.004170389114691218</v>
+        <v>0.003371827776331575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H14">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I14">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J14">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N14">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O14">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P14">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q14">
-        <v>96.23884241099178</v>
+        <v>98.34397860998168</v>
       </c>
       <c r="R14">
-        <v>866.1495816989261</v>
+        <v>885.095807489835</v>
       </c>
       <c r="S14">
-        <v>0.1928837944704055</v>
+        <v>0.2020396442535025</v>
       </c>
       <c r="T14">
-        <v>0.1928837944704056</v>
+        <v>0.2020396442535024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H15">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I15">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J15">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>143.250945</v>
       </c>
       <c r="O15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q15">
-        <v>133.0590063489983</v>
+        <v>122.123101873525</v>
       </c>
       <c r="R15">
-        <v>1197.531057140985</v>
+        <v>1099.107916861725</v>
       </c>
       <c r="S15">
-        <v>0.2666794964496093</v>
+        <v>0.2508919041755843</v>
       </c>
       <c r="T15">
-        <v>0.2666794964496093</v>
+        <v>0.2508919041755842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H16">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I16">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J16">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N16">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O16">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P16">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q16">
-        <v>34.07660471384167</v>
+        <v>47.64962554761333</v>
       </c>
       <c r="R16">
-        <v>306.689442424575</v>
+        <v>428.84662992852</v>
       </c>
       <c r="S16">
-        <v>0.06829700623168741</v>
+        <v>0.09789225055284954</v>
       </c>
       <c r="T16">
-        <v>0.06829700623168743</v>
+        <v>0.09789225055284952</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.786557666666667</v>
+        <v>2.557535</v>
       </c>
       <c r="H17">
-        <v>8.359673000000001</v>
+        <v>7.672605</v>
       </c>
       <c r="I17">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="J17">
-        <v>0.688098791804357</v>
+        <v>0.6791156968065403</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N17">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q17">
-        <v>79.95055923382657</v>
+        <v>62.44683167065166</v>
       </c>
       <c r="R17">
-        <v>719.5550331044391</v>
+        <v>562.021485035865</v>
       </c>
       <c r="S17">
-        <v>0.1602384946526547</v>
+        <v>0.128291897824604</v>
       </c>
       <c r="T17">
-        <v>0.1602384946526547</v>
+        <v>0.128291897824604</v>
       </c>
     </row>
   </sheetData>
